--- a/Peak tables/GenAlex_K4analysis.xlsx
+++ b/Peak tables/GenAlex_K4analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" activeTab="1" xr2:uid="{02F2CCFD-94D3-492A-A397-E16E68890013}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7005" xr2:uid="{02F2CCFD-94D3-492A-A397-E16E68890013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$AB$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1278,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BAB785-FADF-4287-A531-1FE2ACF60388}">
   <dimension ref="A1:AB170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -15791,7 +15791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0410BF49-FA65-4C27-88CE-35410F53185A}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
